--- a/src/attributions/attributions_saliency_traj_460.xlsx
+++ b/src/attributions/attributions_saliency_traj_460.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01752689853310585</v>
+        <v>5.175744445296004e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.009507002308964729</v>
+        <v>0.0002706766244955361</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002697952091693878</v>
+        <v>2.867047987820115e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02222299575805664</v>
+        <v>0.0001835719886003062</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04750187695026398</v>
+        <v>6.814509106334299e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02270263060927391</v>
+        <v>9.353094355901703e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03039554134011269</v>
+        <v>3.372250648681074e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005491935648024082</v>
+        <v>5.803597377962433e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01865773089230061</v>
+        <v>4.642974090529606e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01821114122867584</v>
+        <v>1.882780634332448e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0215299017727375</v>
+        <v>0.0002689994289539754</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01599375158548355</v>
+        <v>2.096350362990052e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01733878813683987</v>
+        <v>0.0002048777241725475</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05348202213644981</v>
+        <v>3.265701525378972e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02131585776805878</v>
+        <v>0.0001726726914057508</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001044408418238163</v>
+        <v>8.53581732371822e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002042277250438929</v>
+        <v>0.0001289033680222929</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006136598065495491</v>
+        <v>0.0001509142894065008</v>
       </c>
       <c r="S2" t="n">
-        <v>0.009875080548226833</v>
+        <v>1.90005375770852e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001421846216544509</v>
+        <v>5.22313712281175e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007113917265087366</v>
+        <v>1.077256729331566e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01230460125952959</v>
+        <v>8.388151400140487e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>0.007217151578515768</v>
+        <v>4.74683110951446e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004295291844755411</v>
+        <v>1.704878741293214e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001990288496017456</v>
+        <v>7.007025851635262e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001558076473884284</v>
+        <v>2.18781060539186e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01546191517263651</v>
+        <v>3.614824890973978e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01559370383620262</v>
+        <v>0.0001250212080776691</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0033498490229249</v>
+        <v>1.613634231034666e-05</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.006711064837872982</v>
+        <v>6.549978934344836e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01120378356426954</v>
+        <v>6.453505193348974e-05</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.001956534804776311</v>
+        <v>4.138883377891034e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01276067085564137</v>
+        <v>1.942700691870414e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0003443500027060509</v>
+        <v>2.121151010214817e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.002207026816904545</v>
+        <v>2.991000837937463e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.00905535276979208</v>
+        <v>5.934435466770083e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.003831050358712673</v>
+        <v>7.393797568511218e-05</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.212901694700122e-05</v>
+        <v>0.000124809259432368</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01061052363365889</v>
+        <v>1.004185742203845e-05</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.002347522880882025</v>
+        <v>6.31367220194079e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.003171935910359025</v>
+        <v>4.590603930409998e-05</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.006585563533008099</v>
+        <v>2.27569626076729e-06</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.001503759762272239</v>
+        <v>5.760020940215327e-06</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.005738827865570784</v>
+        <v>6.501402822323143e-05</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.001873816247098148</v>
+        <v>5.738116669817828e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.002993115689605474</v>
+        <v>0.0001083151801140048</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01006992533802986</v>
+        <v>0.0001218029428855516</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.004344475455582142</v>
+        <v>1.304979286942398e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.001661252230405807</v>
+        <v>4.323662506067194e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02808053232729435</v>
+        <v>1.21126704470953e-05</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.005515941418707371</v>
+        <v>4.521081427810714e-05</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.007256320212036371</v>
+        <v>7.040426135063171e-05</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.007179405074566603</v>
+        <v>2.102085272781551e-05</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0174248069524765</v>
+        <v>1.034011620504316e-05</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.007924159988760948</v>
+        <v>3.209827809769195e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.009467172436416149</v>
+        <v>0.0001403368805767968</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.000639876932837069</v>
+        <v>1.266394247068092e-05</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01366972364485264</v>
+        <v>9.164206858258694e-05</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.009282187558710575</v>
+        <v>5.62178720429074e-05</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.009110643528401852</v>
+        <v>1.34830224851612e-05</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.01585473120212555</v>
+        <v>1.176955083792564e-05</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.008904978632926941</v>
+        <v>2.180605588364415e-05</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.006869932170957327</v>
+        <v>3.624587407102808e-05</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0002456657821312547</v>
+        <v>9.270802547689527e-05</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.005787340924143791</v>
+        <v>0.0001286218903260306</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.00336670596152544</v>
+        <v>1.499241716373945e-05</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.008560840040445328</v>
+        <v>7.488504343200475e-05</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.001550629269331694</v>
+        <v>7.008493412286043e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.00829037930816412</v>
+        <v>1.7034250049619e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.01004796009510756</v>
+        <v>1.018118928186595e-05</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.001303699798882008</v>
+        <v>3.108203964075074e-05</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.00459227291867137</v>
+        <v>3.764618668355979e-05</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.009009342640638351</v>
+        <v>8.880347013473511e-05</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.003036349313333631</v>
+        <v>8.856803469825536e-05</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003729971125721931</v>
+        <v>1.857190727605484e-05</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.007097263354808092</v>
+        <v>3.038812792510726e-06</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.01709174737334251</v>
+        <v>0.000106357409094926</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.00941905565559864</v>
+        <v>3.230220681871288e-05</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.001315134111791849</v>
+        <v>5.190101364860311e-05</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.00560475280508399</v>
+        <v>3.778905374929309e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.003189613809809089</v>
+        <v>7.108539284672588e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.002831325400620699</v>
+        <v>5.404969124356285e-05</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.006606967654079199</v>
+        <v>1.757677091518417e-05</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0003319773240946233</v>
+        <v>9.599605618859641e-06</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.008831187151372433</v>
+        <v>5.347168917069212e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.008135128766298294</v>
+        <v>5.532753857551143e-05</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.006452043075114489</v>
+        <v>6.687891072942875e-06</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.005476794205605984</v>
+        <v>1.627500023460016e-05</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.006363563239574432</v>
+        <v>6.253741503314814e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>4.709470522357151e-05</v>
+        <v>5.935498393228045e-06</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0005183347966521978</v>
+        <v>3.457839557086118e-05</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.002384916646406054</v>
+        <v>2.23466176976217e-05</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.002187950536608696</v>
+        <v>1.170488940260839e-05</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.002165276324376464</v>
+        <v>3.669754732982256e-05</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.008644985035061836</v>
+        <v>1.265115315618459e-05</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.002204531570896506</v>
+        <v>8.99236329132691e-05</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.01357751246541739</v>
+        <v>0.0001064281605067663</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01414267532527447</v>
+        <v>0.0001549352746224031</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.009867299348115921</v>
+        <v>9.875572868622839e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0006920644082129002</v>
+        <v>5.107189645059407e-05</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.007650017272680998</v>
+        <v>1.716981387289707e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0006377598037943244</v>
+        <v>1.802030783437658e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.006775776855647564</v>
+        <v>4.112636452191509e-05</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00543988449499011</v>
+        <v>3.15225770464167e-05</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.006484637968242168</v>
+        <v>1.940890615514945e-05</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.003673118306323886</v>
+        <v>3.267823558417149e-06</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.005315565969794989</v>
+        <v>7.363026725215605e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.004493874497711658</v>
+        <v>3.69497547580977e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.01032209116965532</v>
+        <v>3.004015707119834e-05</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.002231129445135593</v>
+        <v>0.0002082170103676617</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.002967690117657185</v>
+        <v>8.101592538878322e-05</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.01672555133700371</v>
+        <v>0.0001255649694940075</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00817483477294445</v>
+        <v>6.136229785624892e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.004617125727236271</v>
+        <v>0.0001056004839483649</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02696568146348</v>
+        <v>0.0001508198329247534</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.01091948430985212</v>
+        <v>1.999964842980262e-05</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.002723657060414553</v>
+        <v>7.056284812279046e-05</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.003643858013674617</v>
+        <v>9.956368012353778e-05</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0002102768630720675</v>
+        <v>6.681309605482966e-05</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.002047691028565168</v>
+        <v>0.0001330270170001313</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.004090013448148966</v>
+        <v>0.000121326265798416</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.003460603998973966</v>
+        <v>5.025275459047407e-05</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0006416008109226823</v>
+        <v>3.294432099210098e-05</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.009651065804064274</v>
+        <v>1.181156767415814e-05</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.001581552671268582</v>
+        <v>5.418379805632867e-05</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00842013955116272</v>
+        <v>2.132661211362574e-05</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.004895278252661228</v>
+        <v>9.479768050368875e-05</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.005800235085189342</v>
+        <v>5.807372508570552e-05</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.003896898357197642</v>
+        <v>3.212837327737361e-05</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.001718875137157738</v>
+        <v>4.564048504107632e-05</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.00865201186388731</v>
+        <v>1.262151272385381e-05</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.001964670140296221</v>
+        <v>0.000130759333842434</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.001013736939057708</v>
+        <v>6.293338174145902e-06</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0007222510757856071</v>
+        <v>4.720764263765886e-05</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01851547509431839</v>
+        <v>5.252527262200601e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01484545134007931</v>
+        <v>5.768742994405329e-05</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.00183052837383002</v>
+        <v>2.519247391319368e-05</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0002564320457167923</v>
+        <v>4.47930688096676e-08</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.001124021131545305</v>
+        <v>8.955871453508735e-05</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.008972315117716789</v>
+        <v>1.581421383889392e-05</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.01166753005236387</v>
+        <v>2.367903471167665e-05</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.003927301149815321</v>
+        <v>2.59720764006488e-07</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.007426530588418245</v>
+        <v>3.23223284794949e-05</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.001441628905013204</v>
+        <v>3.327148533571744e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.004590088035911322</v>
+        <v>6.509016384370625e-05</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.01121925469487906</v>
+        <v>2.528537879697978e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.002094766357913613</v>
+        <v>9.402963041793555e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.01346797868609428</v>
+        <v>5.053755376138724e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0027955062687397</v>
+        <v>8.335719030583277e-06</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.01265728287398815</v>
+        <v>7.895525050116703e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.008112408220767975</v>
+        <v>1.505700674897525e-05</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.009500673040747643</v>
+        <v>6.620703970838804e-06</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.01251428201794624</v>
+        <v>6.780916010029614e-06</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0004963977262377739</v>
+        <v>6.302439578576013e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.005406081210821867</v>
+        <v>1.900684037536848e-05</v>
       </c>
       <c r="EZ2" t="n">
-        <v>9.869108907878399e-06</v>
+        <v>2.051655792456586e-05</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.007152840495109558</v>
+        <v>5.231084287515841e-05</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.007182091940194368</v>
+        <v>4.479569179238752e-05</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.005594386719167233</v>
+        <v>2.933199766630423e-06</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.003319029929116368</v>
+        <v>1.698635605862364e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.005465822294354439</v>
+        <v>5.976000920782099e-06</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0006840540445409715</v>
+        <v>1.334234002570156e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0162079818546772</v>
+        <v>1.294805588258896e-05</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.002687553409487009</v>
+        <v>9.903916361508891e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.003426582319661975</v>
+        <v>3.001097866217606e-05</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.002815542509779334</v>
+        <v>6.301519169937819e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.003823572769761086</v>
+        <v>9.975024113373365e-06</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.003252001479268074</v>
+        <v>2.250008401460946e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.003909263759851456</v>
+        <v>2.655043499544263e-05</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.01189888082444668</v>
+        <v>2.586860864539631e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.01094538904726505</v>
+        <v>4.394241113914177e-05</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.01009295973926783</v>
+        <v>0.0001498667697887868</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.001304923789575696</v>
+        <v>0.000100951649073977</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.007587353698909283</v>
+        <v>4.86735807498917e-05</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.02424063161015511</v>
+        <v>8.863559196470305e-05</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.01312476210296154</v>
+        <v>2.088681321765762e-05</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.003061899915337563</v>
+        <v>4.396339136292227e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.006057367660105228</v>
+        <v>0.0001755518896970898</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.01234875805675983</v>
+        <v>9.574603609507903e-05</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.01561527512967587</v>
+        <v>4.7238492697943e-05</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.009447268210351467</v>
+        <v>0.0001513330062152818</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.00557708041742444</v>
+        <v>3.979960638389457e-06</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.009302238002419472</v>
+        <v>0.0001558093354105949</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.003136313520371914</v>
+        <v>1.097512722481042e-05</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.01116561703383923</v>
+        <v>0.0001049283164320514</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.01390024553984404</v>
+        <v>7.364054181380197e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0003548467066138983</v>
+        <v>6.014137034071609e-05</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.001289799460209906</v>
+        <v>2.407970896456391e-06</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.009862392209470272</v>
+        <v>2.080161357298493e-05</v>
       </c>
     </row>
     <row r="3">
